--- a/BurndownChart/BurndownChart Sprint 2.xlsx
+++ b/BurndownChart/BurndownChart Sprint 2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/larsdigerud/Desktop/gruppe-35/BurndownChart/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23EE3ED9-5C96-CE42-A224-B91760F54371}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B346A84-3F75-474F-A3DD-592943AAE4A6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BacklogTable" sheetId="1" r:id="rId1"/>
@@ -284,132 +284,6 @@
   <dxfs count="24">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI Light"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -506,6 +380,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -536,6 +428,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -575,6 +485,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -605,6 +533,24 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -644,6 +590,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -679,6 +643,24 @@
     <dxf>
       <font>
         <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -694,6 +676,24 @@
           <color indexed="64"/>
         </right>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI Light"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -963,6 +963,36 @@
                 <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1107,6 +1137,33 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2299,33 +2356,33 @@
     <sortCondition ref="B2:B12"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="19" totalsRowDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Sprint" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Issue ID" totalsRowLabel="6" dataDxfId="18" totalsRowDxfId="17">
       <calculatedColumnFormula>IFERROR(B2+1,1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="18" totalsRowDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="17" totalsRowDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="16" totalsRowDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="15" totalsRowDxfId="1">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Estimated Hours ved start" totalsRowFunction="sum" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Task Name" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Assigned To" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Remaining Hours" totalsRowFunction="sum" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>SprintBacklog[[#This Row],[Estimated Hours ved start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="14" totalsRowDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Status" dataDxfId="8" totalsRowDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F17" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="B2:F17" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B2:F17" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Work Day" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="0" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Forecast Burn Down" dataDxfId="2">
       <calculatedColumnFormula>TotalHours-(Table3[Work Day]*(TotalHours/15))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Actual Burn Down" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{731F4FCE-3968-42EE-A2AB-B035450B4F5A}" name="User stories left in sprint" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium26" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2795,7 +2852,7 @@
   <dimension ref="A2:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15"/>
@@ -2931,8 +2988,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>9.6</v>
       </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="7">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -2945,8 +3006,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>8.5333333333333332</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="12"/>
+      <c r="E9" s="7">
+        <v>14</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
@@ -2959,8 +3024,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>7.4666666666666668</v>
       </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="12"/>
+      <c r="E10" s="7">
+        <v>11</v>
+      </c>
+      <c r="F10" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
@@ -2973,8 +3042,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>6.4</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="12"/>
+      <c r="E11" s="7">
+        <v>11</v>
+      </c>
+      <c r="F11" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
@@ -2987,8 +3060,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>5.3333333333333339</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="7">
+        <v>8</v>
+      </c>
+      <c r="F12" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
@@ -3001,8 +3078,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>4.2666666666666675</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="12"/>
+      <c r="E13" s="7">
+        <v>8</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
@@ -3015,8 +3096,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>3.1999999999999993</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="12"/>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
@@ -3029,8 +3114,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>2.1333333333333329</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="12"/>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
@@ -3044,8 +3133,12 @@
         <f>TotalHours-(Table3[Work Day]*(TotalHours/15))</f>
         <v>1.0666666666666664</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="12"/>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="12">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
@@ -3060,7 +3153,9 @@
         <v>0</v>
       </c>
       <c r="E17" s="7"/>
-      <c r="F17" s="12"/>
+      <c r="F17" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
